--- a/Optimise_media_data_hyyzo.xlsx
+++ b/Optimise_media_data_hyyzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\Sklearn_And_Python_For_Interview\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81C08A1-29A5-49E2-BA82-8E613EA9BF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D798434B-3BFC-4B4D-A88B-3E9B10B40D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
